--- a/EASE/EASE(D)-Repeated.xlsx
+++ b/EASE/EASE(D)-Repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B030C214-9CEE-4624-B2F8-86A62EE28AE7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="114_{B409581E-AB40-493C-B6FB-78B2AF776A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09D60A17-4C49-4CA4-B774-16E130A5ACE5}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="795" windowWidth="21645" windowHeight="14775" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -40,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="129">
   <si>
     <t>Group</t>
   </si>
@@ -422,22 +424,19 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
-    <t>Retreived from https://github.com/cwendorf/BASE/tree/master/EASE</t>
-  </si>
-  <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/EASE</t>
-  </si>
-  <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Exxcel Spreadsheet].</t>
-  </si>
-  <si>
     <t>How to Cite</t>
   </si>
   <si>
     <t>cwendorf@uwsp.edu</t>
+  </si>
+  <si>
+    <t>Version: 2.20200104</t>
+  </si>
+  <si>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
+  </si>
+  <si>
+    <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
 </sst>
 </file>
@@ -1392,10 +1391,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1444,6 +1439,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -8651,24 +8650,24 @@
   </sheetPr>
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="31"/>
-    <col min="9" max="10" width="4.5703125" style="31" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="31"/>
-    <col min="18" max="19" width="4.5703125" style="31" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="31"/>
+    <col min="1" max="1" width="4.578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="31"/>
+    <col min="9" max="10" width="4.578125" style="31" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="31"/>
+    <col min="18" max="19" width="4.578125" style="31" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="127"/>
     </row>
-    <row r="2" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="127"/>
       <c r="B2" s="192" t="s">
         <v>123</v>
@@ -8691,7 +8690,7 @@
       <c r="P2" s="193"/>
       <c r="Q2" s="193"/>
     </row>
-    <row r="3" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="127"/>
       <c r="B3" s="194" t="s">
         <v>65</v>
@@ -8705,7 +8704,7 @@
       <c r="I3" s="191"/>
       <c r="J3" s="191"/>
       <c r="K3" s="194" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L3" s="194"/>
       <c r="M3" s="194"/>
@@ -8714,7 +8713,7 @@
       <c r="P3" s="194"/>
       <c r="Q3" s="194"/>
     </row>
-    <row r="4" spans="1:17" s="132" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="132" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="131"/>
       <c r="B4" s="194" t="s">
         <v>35</v>
@@ -8727,8 +8726,8 @@
       <c r="H4" s="194"/>
       <c r="I4" s="191"/>
       <c r="J4" s="191"/>
-      <c r="K4" s="195" t="s">
-        <v>126</v>
+      <c r="K4" s="209" t="s">
+        <v>128</v>
       </c>
       <c r="L4" s="194"/>
       <c r="M4" s="194"/>
@@ -8737,7 +8736,7 @@
       <c r="P4" s="194"/>
       <c r="Q4" s="194"/>
     </row>
-    <row r="5" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="127"/>
       <c r="I5" s="129"/>
       <c r="J5" s="129"/>
@@ -8749,7 +8748,7 @@
       <c r="P5" s="129"/>
       <c r="Q5" s="129"/>
     </row>
-    <row r="6" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="123" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="127"/>
       <c r="B6" s="8" t="s">
         <v>84</v>
@@ -8758,7 +8757,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="31" t="s">
         <v>99</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="31" t="s">
         <v>100</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="31" t="s">
         <v>114</v>
       </c>
@@ -8782,12 +8781,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="8" t="s">
         <v>86</v>
       </c>
@@ -8795,10 +8794,10 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="31" t="s">
         <v>66</v>
       </c>
@@ -8806,7 +8805,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31"/>
       <c r="B16" s="31" t="s">
         <v>103</v>
@@ -8815,7 +8814,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31"/>
       <c r="B17" s="31" t="s">
         <v>97</v>
@@ -8824,7 +8823,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31"/>
       <c r="B18" s="31" t="s">
         <v>98</v>
@@ -8833,7 +8832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="31"/>
       <c r="B20" s="8" t="s">
         <v>89</v>
@@ -8842,7 +8841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="31"/>
       <c r="B22" s="28" t="s">
         <v>90</v>
@@ -8860,7 +8859,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31"/>
       <c r="B23" s="28" t="s">
         <v>91</v>
@@ -8878,7 +8877,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31"/>
       <c r="B24" s="28" t="s">
         <v>92</v>
@@ -8896,7 +8895,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="31" t="s">
         <v>122</v>
@@ -8905,7 +8904,7 @@
         <v>110</v>
       </c>
       <c r="K25" s="188" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -8914,7 +8913,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="31"/>
       <c r="B26" s="28" t="s">
         <v>93</v>
@@ -8932,7 +8931,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -8941,13 +8940,13 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="31"/>
       <c r="B28" s="8" t="s">
         <v>121</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -8956,7 +8955,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31"/>
       <c r="B29" s="30"/>
       <c r="L29"/>
@@ -8966,7 +8965,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="31"/>
       <c r="B30" s="30" t="s">
         <v>94</v>
@@ -8981,7 +8980,7 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31"/>
       <c r="B31" s="30" t="s">
         <v>95</v>
@@ -8996,13 +8995,13 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="31"/>
       <c r="B32" s="30" t="s">
         <v>96</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9011,7 +9010,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -9052,24 +9051,24 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" style="5"/>
-    <col min="6" max="6" width="11.140625" style="44"/>
-    <col min="7" max="8" width="11.140625" style="5"/>
-    <col min="9" max="10" width="4.5703125" style="5" customWidth="1"/>
-    <col min="11" max="15" width="11.140625" style="21"/>
-    <col min="16" max="16" width="11.140625" style="93"/>
-    <col min="17" max="17" width="11.140625" style="5"/>
-    <col min="18" max="18" width="4.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="5"/>
+    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="11.15625" style="5"/>
+    <col min="6" max="6" width="11.15625" style="44"/>
+    <col min="7" max="8" width="11.15625" style="5"/>
+    <col min="9" max="10" width="4.578125" style="5" customWidth="1"/>
+    <col min="11" max="15" width="11.15625" style="21"/>
+    <col min="16" max="16" width="11.15625" style="93"/>
+    <col min="17" max="17" width="11.15625" style="5"/>
+    <col min="18" max="18" width="4.578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.15625" style="5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" s="5"/>
       <c r="K1" s="44"/>
       <c r="L1" s="5"/>
@@ -9077,36 +9076,36 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="200" t="s">
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="199" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="K2" s="200" t="s">
+      <c r="C2" s="199"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="199"/>
+      <c r="F2" s="199"/>
+      <c r="G2" s="199"/>
+      <c r="H2" s="199"/>
+      <c r="K2" s="199" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="199"/>
+      <c r="N2" s="199"/>
+      <c r="O2" s="199"/>
       <c r="P2" s="125"/>
       <c r="Q2" s="126"/>
-      <c r="T2" s="200" t="s">
+      <c r="T2" s="199" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
-    </row>
-    <row r="3" spans="2:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="U2" s="199"/>
+      <c r="V2" s="199"/>
+      <c r="W2" s="199"/>
+      <c r="X2" s="199"/>
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="199"/>
+    </row>
+    <row r="3" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
       <c r="K3" s="44"/>
       <c r="L3" s="6"/>
@@ -9118,7 +9117,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" ht="15.9" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B4" s="13" t="s">
         <v>30</v>
       </c>
@@ -9152,7 +9151,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="20"/>
       <c r="L5" s="20"/>
       <c r="M5" s="20"/>
@@ -9170,16 +9169,16 @@
       <c r="Y5" s="54"/>
       <c r="Z5" s="54"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="199" t="s">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="198"/>
+      <c r="E6" s="198"/>
+      <c r="F6" s="198"/>
+      <c r="G6" s="198"/>
+      <c r="H6" s="198"/>
       <c r="P6" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9207,14 +9206,14 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="205"/>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
       <c r="P7" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9248,14 +9247,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="205"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
+      <c r="G8" s="205"/>
+      <c r="H8" s="205"/>
       <c r="P8" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9289,7 +9288,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -9330,16 +9329,16 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="204" t="s">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="203"/>
+      <c r="H10" s="203"/>
       <c r="P10" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9372,14 +9371,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="200"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="200"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
       <c r="P11" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9412,14 +9411,14 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="201"/>
+      <c r="C12" s="201"/>
+      <c r="D12" s="201"/>
+      <c r="E12" s="201"/>
+      <c r="F12" s="201"/>
+      <c r="G12" s="201"/>
+      <c r="H12" s="201"/>
       <c r="P12" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9433,14 +9432,14 @@
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="201"/>
+      <c r="C13" s="201"/>
+      <c r="D13" s="201"/>
+      <c r="E13" s="201"/>
+      <c r="F13" s="201"/>
+      <c r="G13" s="201"/>
+      <c r="H13" s="201"/>
       <c r="P13" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9456,14 +9455,14 @@
       <c r="Y13" s="54"/>
       <c r="Z13" s="54"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
+    <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B14" s="202"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
+      <c r="E14" s="202"/>
+      <c r="F14" s="202"/>
+      <c r="G14" s="202"/>
+      <c r="H14" s="202"/>
       <c r="P14" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9477,31 +9476,31 @@
       <c r="Y14" s="54"/>
       <c r="Z14" s="54"/>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P15" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P16" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P17" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P18" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B19" s="13" t="s">
         <v>38</v>
       </c>
@@ -9524,7 +9523,7 @@
       <c r="Y19" s="58"/>
       <c r="Z19" s="78"/>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="15"/>
@@ -9545,17 +9544,17 @@
       <c r="Y20" s="54"/>
       <c r="Z20" s="54"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="199" t="s">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B21" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199" t="s">
+      <c r="C21" s="198"/>
+      <c r="D21" s="198" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="198"/>
       <c r="H21" s="12" t="s">
         <v>26</v>
       </c>
@@ -9584,13 +9583,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B22" s="197"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="196"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
       <c r="H22" s="115"/>
       <c r="P22" s="93" t="str">
         <f t="shared" si="0"/>
@@ -9621,13 +9620,13 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B23" s="198"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="197"/>
+      <c r="C23" s="197"/>
+      <c r="D23" s="197"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="197"/>
+      <c r="G23" s="197"/>
       <c r="H23" s="53"/>
       <c r="P23" s="93" t="str">
         <f t="shared" si="0"/>
@@ -9655,13 +9654,13 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B24" s="198"/>
-      <c r="C24" s="198"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="197"/>
+      <c r="C24" s="197"/>
+      <c r="D24" s="197"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="197"/>
+      <c r="G24" s="197"/>
       <c r="H24" s="53"/>
       <c r="P24" s="93" t="str">
         <f t="shared" si="0"/>
@@ -9686,13 +9685,13 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="196"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B25" s="195"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
       <c r="H25" s="116"/>
       <c r="P25" s="93" t="str">
         <f t="shared" ref="P25:P69" si="1">IFERROR(AVERAGE(L25:O25),"")</f>
@@ -9714,7 +9713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="89"/>
       <c r="C26" s="89"/>
       <c r="D26" s="89"/>
@@ -9735,7 +9734,7 @@
       <c r="Y26" s="40"/>
       <c r="Z26" s="40"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P27" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -9751,7 +9750,7 @@
       <c r="Y27" s="54"/>
       <c r="Z27" s="54"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="46"/>
       <c r="C28" s="46"/>
       <c r="E28" s="7"/>
@@ -9769,7 +9768,7 @@
       <c r="Y28" s="54"/>
       <c r="Z28" s="54"/>
     </row>
-    <row r="29" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B29" s="46"/>
       <c r="C29" s="46"/>
       <c r="E29" s="46"/>
@@ -9788,7 +9787,7 @@
       <c r="Y29" s="59"/>
       <c r="Z29" s="28"/>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="46"/>
       <c r="C30" s="46"/>
       <c r="E30" s="46"/>
@@ -9806,7 +9805,7 @@
       <c r="Y30" s="59"/>
       <c r="Z30" s="28"/>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="E31" s="46"/>
@@ -9838,7 +9837,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
       <c r="E32" s="46"/>
@@ -9870,7 +9869,7 @@
       <c r="Y32" s="96"/>
       <c r="Z32" s="95"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
       <c r="E33" s="46"/>
@@ -9908,7 +9907,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="46"/>
       <c r="C34" s="46"/>
       <c r="E34" s="46"/>
@@ -9937,7 +9936,7 @@
       <c r="Y34" s="102"/>
       <c r="Z34" s="103"/>
     </row>
-    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="46"/>
       <c r="C35" s="46"/>
       <c r="E35" s="46"/>
@@ -9966,7 +9965,7 @@
       <c r="Y35" s="104"/>
       <c r="Z35" s="106"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="46"/>
       <c r="C36" s="46"/>
       <c r="E36" s="46"/>
@@ -9984,7 +9983,7 @@
       <c r="Y36" s="60"/>
       <c r="Z36" s="60"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="46"/>
       <c r="C37" s="46"/>
       <c r="E37" s="46"/>
@@ -9994,7 +9993,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="46"/>
       <c r="C38" s="46"/>
       <c r="P38" s="93" t="str">
@@ -10002,7 +10001,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="46"/>
       <c r="C39" s="46"/>
       <c r="P39" s="93" t="str">
@@ -10010,7 +10009,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
       <c r="P40" s="93" t="str">
@@ -10018,7 +10017,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
       <c r="P41" s="93" t="str">
@@ -10026,7 +10025,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="46"/>
       <c r="C42" s="46"/>
       <c r="P42" s="93" t="str">
@@ -10034,7 +10033,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="46"/>
       <c r="C43" s="46"/>
       <c r="P43" s="93" t="str">
@@ -10042,979 +10041,979 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P44" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P45" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P46" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P47" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="P48" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P49" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P50" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P51" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P52" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P53" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P54" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P55" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P56" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P57" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P58" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P59" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P60" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P61" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P62" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P63" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P64" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P65" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P66" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P67" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P68" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P69" s="93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P70" s="93" t="str">
         <f t="shared" ref="P70:P133" si="2">IFERROR(AVERAGE(L70:O70),"")</f>
         <v/>
       </c>
     </row>
-    <row r="71" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P71" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P72" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P73" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P74" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P75" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P76" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P77" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="78" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P78" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P79" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P80" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="81" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P81" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="82" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P82" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="83" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P83" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="84" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P84" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="85" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P85" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="86" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P86" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="87" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P87" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="88" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P88" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="89" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P89" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="90" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P90" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="91" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P91" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="92" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P92" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="93" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P93" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="94" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P94" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P95" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="96" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P96" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="97" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P97" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="98" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P98" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="99" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P99" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="100" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P100" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="101" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P101" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="102" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P102" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="103" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P103" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="104" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P104" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="105" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P105" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="106" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P106" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="107" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P107" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="108" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P108" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="109" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P109" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="110" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P110" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="111" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P111" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="112" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P112" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="113" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P113" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="114" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P114" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="115" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P115" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="116" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P116" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="117" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P117" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="118" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P118" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="119" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P119" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="120" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P120" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="121" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P121" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="122" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P122" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="123" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P123" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="124" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P124" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="125" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P125" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="126" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P126" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P127" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="128" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P128" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="129" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P129" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="130" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P130" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="131" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P131" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="132" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P132" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="133" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P133" s="93" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="134" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P134" s="93" t="str">
         <f t="shared" ref="P134:P197" si="3">IFERROR(AVERAGE(L134:O134),"")</f>
         <v/>
       </c>
     </row>
-    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="135" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P135" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="136" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P136" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="137" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P137" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="138" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P138" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="139" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P139" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="140" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P140" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="141" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P141" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="142" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P142" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="143" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P143" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="144" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P144" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="145" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P145" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="146" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P146" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="147" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P147" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="148" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P148" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="149" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P149" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="150" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P150" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="151" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P151" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="152" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P152" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="153" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P153" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="154" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P154" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="155" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P155" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="156" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P156" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="157" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P157" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="158" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P158" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="159" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P159" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="160" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P160" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="161" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P161" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="162" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P162" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="163" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P163" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="164" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P164" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="165" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P165" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="166" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P166" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="167" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P167" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="168" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P168" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="169" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P169" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="170" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P170" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="171" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P171" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="172" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P172" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="173" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P173" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="174" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P174" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="175" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P175" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="176" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P176" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="177" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P177" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="178" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P178" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="179" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P179" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="180" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P180" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="181" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P181" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="182" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P182" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="183" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P183" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="184" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P184" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="185" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P185" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="186" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P186" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="187" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P187" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="188" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P188" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="189" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P189" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="190" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P190" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="191" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P191" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="192" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P192" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="193" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P193" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="194" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P194" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="195" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P195" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="196" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P196" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="197" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P197" s="93" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="198" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P198" s="93" t="str">
         <f t="shared" ref="P198:P206" si="4">IFERROR(AVERAGE(L198:O198),"")</f>
         <v/>
       </c>
     </row>
-    <row r="199" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="199" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P199" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="200" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P200" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="201" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P201" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="202" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P202" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="203" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P203" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="204" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P204" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="205" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P205" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="206" spans="16:16" x14ac:dyDescent="0.55000000000000004">
       <c r="P206" s="93" t="str">
         <f t="shared" si="4"/>
         <v/>
@@ -11059,59 +11058,59 @@
       <selection activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="35" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="34"/>
-    <col min="9" max="9" width="4.5703125" style="34" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="35" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="34"/>
-    <col min="18" max="18" width="4.5703125" style="35" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="35" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="34"/>
+    <col min="9" max="9" width="4.578125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="35" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="34"/>
+    <col min="18" max="18" width="4.578125" style="35" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="34" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="34" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="34"/>
+    <col min="27" max="27" width="4.578125" style="34" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5"/>
       <c r="J1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="206" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="206" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
       <c r="R2" s="5"/>
-      <c r="T2" s="207" t="s">
+      <c r="T2" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="207"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="207"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -11130,7 +11129,7 @@
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="34"/>
       <c r="B4" s="8" t="s">
         <v>111</v>
@@ -11161,7 +11160,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
@@ -11181,7 +11180,7 @@
       <c r="Q5" s="31"/>
       <c r="S5" s="54"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="133" t="s">
         <v>64</v>
@@ -11198,10 +11197,10 @@
       <c r="F6" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="208" t="s">
+      <c r="G6" s="207" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="208"/>
+      <c r="H6" s="207"/>
       <c r="J6" s="3"/>
       <c r="K6" s="133" t="s">
         <v>64</v>
@@ -11218,13 +11217,13 @@
       <c r="O6" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="208" t="s">
+      <c r="P6" s="207" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="208"/>
+      <c r="Q6" s="207"/>
       <c r="S6" s="54"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="22" t="str">
         <f>Data!T7</f>
@@ -11284,7 +11283,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="24" t="str">
         <f>Data!T8</f>
@@ -11344,7 +11343,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="B9" s="24" t="str">
         <f>Data!T9</f>
@@ -11404,7 +11403,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
       <c r="B10" s="24" t="str">
         <f>Data!T10</f>
@@ -11464,7 +11463,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -11483,7 +11482,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="R12" s="35"/>
       <c r="T12" s="109"/>
@@ -11494,7 +11493,7 @@
       <c r="Y12" s="35"/>
       <c r="Z12" s="35"/>
     </row>
-    <row r="13" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
       <c r="R13" s="35"/>
       <c r="T13" s="109"/>
@@ -11505,7 +11504,7 @@
       <c r="Y13" s="35"/>
       <c r="Z13" s="35"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="34"/>
       <c r="B14" s="8" t="s">
         <v>113</v>
@@ -11537,7 +11536,7 @@
       <c r="Y14" s="54"/>
       <c r="Z14" s="54"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
@@ -11564,7 +11563,7 @@
       <c r="Y15" s="54"/>
       <c r="Z15" s="54"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="29"/>
       <c r="B16" s="121" t="s">
         <v>77</v>
@@ -11613,7 +11612,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A17" s="29"/>
       <c r="B17" s="47" t="s">
         <v>0</v>
@@ -11681,7 +11680,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="47">
         <v>1.1000000000000001</v>
@@ -11755,7 +11754,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="29"/>
       <c r="B19" s="47">
         <v>1.1000000000000001</v>
@@ -11829,7 +11828,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="29"/>
       <c r="B20" s="47">
         <v>1.1000000000000001</v>
@@ -11903,7 +11902,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="29"/>
       <c r="B21" s="47">
         <v>2.1</v>
@@ -11956,7 +11955,7 @@
       <c r="Y21" s="111"/>
       <c r="Z21" s="111"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="29"/>
       <c r="B22" s="47">
         <v>2.1</v>
@@ -12023,7 +12022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="47">
         <v>2.1</v>
@@ -12097,7 +12096,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="47">
         <v>3.1</v>
@@ -12171,7 +12170,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="47">
         <v>3.1</v>
@@ -12245,7 +12244,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="29"/>
       <c r="B26" s="47">
         <v>3.1</v>
@@ -12319,7 +12318,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="29"/>
       <c r="B27" s="47">
         <v>4.0999999999999996</v>
@@ -12372,7 +12371,7 @@
       <c r="Y27" s="40"/>
       <c r="Z27" s="40"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="48">
         <v>4.0999999999999996</v>
@@ -12433,7 +12432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="48">
         <v>4.0999999999999996</v>
@@ -12499,7 +12498,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
@@ -12539,7 +12538,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
@@ -12579,7 +12578,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="29"/>
       <c r="B32" s="43"/>
       <c r="C32" s="33"/>
@@ -12618,7 +12617,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A33" s="4"/>
       <c r="B33" s="43"/>
       <c r="C33" s="33"/>
@@ -12643,7 +12642,7 @@
       <c r="Y33" s="40"/>
       <c r="Z33" s="40"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="119"/>
       <c r="C34" s="30"/>
@@ -12664,7 +12663,7 @@
       <c r="Y34" s="54"/>
       <c r="Z34" s="54"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="119"/>
       <c r="C35" s="30"/>
@@ -12685,12 +12684,12 @@
       <c r="Y35" s="54"/>
       <c r="Z35" s="54"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="S36" s="54"/>
       <c r="Y36" s="54"/>
       <c r="Z36" s="54"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="61" t="s">
         <v>112</v>
       </c>
@@ -12712,7 +12711,7 @@
       <c r="Y37" s="54"/>
       <c r="Z37" s="54"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
@@ -12730,7 +12729,7 @@
       <c r="Y38" s="54"/>
       <c r="Z38" s="54"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="135" t="s">
         <v>64</v>
       </c>
@@ -12766,7 +12765,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="22" t="str">
         <f>B7</f>
         <v/>
@@ -12805,7 +12804,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="24" t="str">
         <f>B8</f>
         <v/>
@@ -12844,7 +12843,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="24" t="str">
         <f>B9</f>
         <v/>
@@ -12883,7 +12882,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="141" t="str">
         <f>B10</f>
         <v/>
@@ -12922,7 +12921,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="111"/>
       <c r="C44" s="2"/>
       <c r="D44" s="111"/>
@@ -12963,45 +12962,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showRuler="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="54" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="54"/>
-    <col min="9" max="10" width="4.5703125" style="54" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="54"/>
-    <col min="18" max="18" width="4.7109375" style="54" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="54" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="54" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="54"/>
+    <col min="9" max="10" width="4.578125" style="54" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="54"/>
+    <col min="18" max="18" width="4.68359375" style="54" customWidth="1"/>
+    <col min="19" max="19" width="4.68359375" style="54" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="54" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="54" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="54"/>
+    <col min="27" max="27" width="4.578125" style="54" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="207" t="s">
+    <row r="1" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="206" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="K2" s="207" t="s">
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
+      <c r="K2" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
-    </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
+    </row>
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="61" t="s">
         <v>111</v>
       </c>
@@ -13034,7 +13033,7 @@
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
       <c r="M5" s="28"/>
@@ -13052,7 +13051,7 @@
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="145" t="s">
         <v>64</v>
       </c>
@@ -13068,10 +13067,10 @@
       <c r="F6" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="209" t="s">
+      <c r="G6" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="209"/>
+      <c r="H6" s="208"/>
       <c r="K6" s="163" t="s">
         <v>64</v>
       </c>
@@ -13088,10 +13087,10 @@
       <c r="O6" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="208" t="s">
+      <c r="P6" s="207" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="208"/>
+      <c r="Q6" s="207"/>
       <c r="R6" s="167"/>
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
@@ -13102,7 +13101,7 @@
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="115"/>
       <c r="C7" s="73" t="str">
         <f>IF(B7="","",VLOOKUP($B7,Data!$U$7:$X$10,2,FALSE))</f>
@@ -13166,7 +13165,7 @@
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="189"/>
       <c r="C8" s="77" t="str">
         <f>IF(B8="","",VLOOKUP($B8,Data!$U$7:$X$10,2,FALSE))</f>
@@ -13230,7 +13229,7 @@
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="113"/>
       <c r="C9" s="113"/>
       <c r="D9" s="113"/>
@@ -13255,7 +13254,7 @@
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="159" t="s">
         <v>116</v>
       </c>
@@ -13269,10 +13268,10 @@
       <c r="F10" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="208" t="s">
+      <c r="G10" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="208"/>
+      <c r="H10" s="207"/>
       <c r="K10" s="163" t="s">
         <v>116</v>
       </c>
@@ -13289,10 +13288,10 @@
       <c r="O10" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="208" t="s">
+      <c r="P10" s="207" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="208"/>
+      <c r="Q10" s="207"/>
       <c r="R10" s="167"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
@@ -13303,7 +13302,7 @@
       <c r="Y10" s="42"/>
       <c r="Z10" s="42"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="147" t="s">
         <v>105</v>
       </c>
@@ -13369,7 +13368,7 @@
       <c r="Y11" s="42"/>
       <c r="Z11" s="42"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -13394,7 +13393,7 @@
       <c r="Y12" s="42"/>
       <c r="Z12" s="42"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R13" s="167"/>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
@@ -13405,7 +13404,7 @@
       <c r="Y13" s="42"/>
       <c r="Z13" s="42"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="61" t="s">
         <v>113</v>
       </c>
@@ -13433,7 +13432,7 @@
       <c r="Y14" s="42"/>
       <c r="Z14" s="42"/>
     </row>
-    <row r="15" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
@@ -13451,7 +13450,7 @@
       <c r="Y15" s="42"/>
       <c r="Z15" s="42"/>
     </row>
-    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="144" t="s">
         <v>77</v>
       </c>
@@ -13504,7 +13503,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="43" t="s">
         <v>0</v>
       </c>
@@ -13574,7 +13573,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -13654,7 +13653,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -13793,7 +13792,7 @@
       <c r="Y20" s="180"/>
       <c r="Z20" s="180"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="43">
         <v>2.1</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="43">
         <v>2.1</v>
       </c>
@@ -13946,7 +13945,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="43">
         <v>2.1</v>
       </c>
@@ -14023,7 +14022,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="43">
         <v>2.75</v>
       </c>
@@ -14100,7 +14099,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="43">
         <v>2.75</v>
       </c>
@@ -14156,7 +14155,7 @@
       <c r="Y25" s="182"/>
       <c r="Z25" s="182"/>
     </row>
-    <row r="26" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="43">
         <v>2.75</v>
       </c>
@@ -14222,7 +14221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="119"/>
       <c r="C27" s="143"/>
       <c r="D27" s="143"/>
@@ -14277,7 +14276,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="119"/>
       <c r="C28" s="119"/>
       <c r="D28" s="143"/>
@@ -14335,7 +14334,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="119"/>
       <c r="C29" s="119"/>
       <c r="D29" s="143"/>
@@ -14374,7 +14373,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="153" t="s">
         <v>107</v>
       </c>
@@ -14406,7 +14405,7 @@
       <c r="Y30" s="182"/>
       <c r="Z30" s="182"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="43">
         <v>1.1000000000000001</v>
       </c>
@@ -14463,7 +14462,7 @@
       <c r="T31" s="42"/>
       <c r="U31" s="42"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="43">
         <v>3.15</v>
       </c>
@@ -14518,7 +14517,7 @@
       </c>
       <c r="S32" s="42"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="43"/>
       <c r="C33" s="143"/>
       <c r="D33" s="43"/>
@@ -14535,7 +14534,7 @@
       <c r="Q33" s="119"/>
       <c r="S33" s="42"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="43"/>
       <c r="C34" s="143"/>
       <c r="D34" s="43"/>
@@ -14568,7 +14567,7 @@
       <c r="Y34" s="42"/>
       <c r="Z34" s="42"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="43"/>
       <c r="C35" s="143"/>
       <c r="D35" s="43"/>
@@ -14601,7 +14600,7 @@
       <c r="Y35" s="42"/>
       <c r="Z35" s="42"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="43"/>
       <c r="C36" s="143"/>
       <c r="D36" s="43"/>
@@ -14625,7 +14624,7 @@
       <c r="Y36" s="42"/>
       <c r="Z36" s="42"/>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="61" t="s">
         <v>112</v>
       </c>
@@ -14647,7 +14646,7 @@
       <c r="Y37" s="42"/>
       <c r="Z37" s="42"/>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K38" s="184"/>
       <c r="L38" s="184"/>
       <c r="M38" s="184"/>
@@ -14665,7 +14664,7 @@
       <c r="Y38" s="167"/>
       <c r="Z38" s="167"/>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="145" t="s">
         <v>64</v>
       </c>
@@ -14709,7 +14708,7 @@
       <c r="Y39" s="167"/>
       <c r="Z39" s="167"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="73" t="str">
         <f>IF(B7="","",B7)</f>
         <v/>
@@ -14757,7 +14756,7 @@
       <c r="Y40" s="167"/>
       <c r="Z40" s="167"/>
     </row>
-    <row r="41" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="146" t="str">
         <f>IF(B8="","",B8)</f>
         <v/>
@@ -14805,7 +14804,7 @@
       <c r="Y41" s="167"/>
       <c r="Z41" s="167"/>
     </row>
-    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="40"/>
       <c r="C42" s="40"/>
       <c r="D42" s="40"/>
@@ -14830,7 +14829,7 @@
       <c r="Y42" s="167"/>
       <c r="Z42" s="167"/>
     </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="160" t="s">
         <v>116</v>
       </c>
@@ -14874,7 +14873,7 @@
       <c r="Y43" s="167"/>
       <c r="Z43" s="167"/>
     </row>
-    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="147" t="s">
         <v>105</v>
       </c>
@@ -14920,7 +14919,7 @@
       <c r="Y44" s="167"/>
       <c r="Z44" s="167"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="40"/>
       <c r="C45" s="40"/>
       <c r="D45" s="40"/>
@@ -14946,7 +14945,7 @@
       <c r="Z45" s="167"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G6:H6"/>
@@ -14974,21 +14973,21 @@
       <selection activeCell="L40" sqref="L40:L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="31" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="31"/>
-    <col min="9" max="9" width="4.5703125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="34" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="34"/>
-    <col min="18" max="18" width="4.5703125" style="34" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="34" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="31" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="31"/>
+    <col min="9" max="9" width="4.578125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="34" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="34"/>
+    <col min="18" max="18" width="4.578125" style="34" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="34" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="34" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="34" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="34"/>
+    <col min="27" max="27" width="4.578125" style="34" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="124" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="123"/>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -14999,40 +14998,40 @@
       <c r="H1" s="123"/>
       <c r="I1" s="123"/>
     </row>
-    <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
+      <c r="C2" s="206"/>
+      <c r="D2" s="206"/>
+      <c r="E2" s="206"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="206"/>
+      <c r="H2" s="206"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="207" t="s">
+      <c r="K2" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="207"/>
-      <c r="O2" s="207"/>
-      <c r="P2" s="207"/>
-      <c r="Q2" s="207"/>
+      <c r="L2" s="206"/>
+      <c r="M2" s="206"/>
+      <c r="N2" s="206"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="206"/>
+      <c r="Q2" s="206"/>
       <c r="R2" s="5"/>
-      <c r="T2" s="207" t="s">
+      <c r="T2" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="207"/>
-      <c r="V2" s="207"/>
-      <c r="W2" s="207"/>
-      <c r="X2" s="207"/>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="207"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="U2" s="206"/>
+      <c r="V2" s="206"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="206"/>
+      <c r="Y2" s="206"/>
+      <c r="Z2" s="206"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="34"/>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -15042,7 +15041,7 @@
       <c r="G3" s="35"/>
       <c r="H3" s="35"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="34"/>
       <c r="B4" s="9" t="s">
         <v>111</v>
@@ -15067,7 +15066,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
@@ -15078,7 +15077,7 @@
       <c r="Q5" s="31"/>
       <c r="S5" s="54"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="64" t="s">
         <v>64</v>
       </c>
@@ -15095,10 +15094,10 @@
       <c r="F6" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="208" t="s">
+      <c r="G6" s="207" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="208"/>
+      <c r="H6" s="207"/>
       <c r="J6" s="31"/>
       <c r="K6" s="63" t="s">
         <v>64</v>
@@ -15116,13 +15115,13 @@
       <c r="O6" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="208" t="s">
+      <c r="P6" s="207" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="208"/>
+      <c r="Q6" s="207"/>
       <c r="S6" s="54"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="22" t="str">
         <f>IF(D7="","","1 vs. 2")</f>
         <v/>
@@ -15181,7 +15180,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="24" t="str">
         <f>IF(D8="","","1 vs. 3")</f>
         <v/>
@@ -15240,7 +15239,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="24" t="str">
         <f>IF(D9="","","2 vs. 3")</f>
         <v/>
@@ -15299,7 +15298,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="24" t="str">
         <f>IF(D10="","","1 vs. 4")</f>
         <v/>
@@ -15358,7 +15357,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="24" t="str">
         <f>IF(D11="","","2 vs. 4")</f>
         <v/>
@@ -15417,7 +15416,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="26" t="str">
         <f>IF(D12="","","3 vs. 4")</f>
         <v/>
@@ -15476,7 +15475,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -15493,7 +15492,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="34"/>
       <c r="B14" s="9" t="s">
         <v>113</v>
@@ -15517,7 +15516,7 @@
       <c r="Y14" s="54"/>
       <c r="Z14" s="54"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -15535,7 +15534,7 @@
       <c r="Y15" s="54"/>
       <c r="Z15" s="54"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="120" t="s">
         <v>77</v>
       </c>
@@ -15582,7 +15581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="50" t="s">
         <v>0</v>
       </c>
@@ -15648,7 +15647,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="50">
         <v>1.1000000000000001</v>
       </c>
@@ -15720,7 +15719,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="50">
         <v>1.1000000000000001</v>
       </c>
@@ -15792,7 +15791,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B20" s="50">
         <v>1.1000000000000001</v>
       </c>
@@ -15864,7 +15863,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="50">
         <v>2.1</v>
       </c>
@@ -15936,7 +15935,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="50">
         <v>2.1</v>
       </c>
@@ -16008,7 +16007,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="50">
         <v>2.1</v>
       </c>
@@ -16059,7 +16058,7 @@
       <c r="Y23" s="113"/>
       <c r="Z23" s="113"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="50">
         <v>3.1</v>
       </c>
@@ -16124,7 +16123,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="50">
         <v>3.1</v>
       </c>
@@ -16196,7 +16195,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="50">
         <v>3.1</v>
       </c>
@@ -16268,7 +16267,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -16340,7 +16339,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -16412,7 +16411,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="50">
         <v>4.0999999999999996</v>
       </c>
@@ -16484,7 +16483,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="50">
         <v>5.0999999999999996</v>
       </c>
@@ -16556,7 +16555,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="50">
         <v>5.0999999999999996</v>
       </c>
@@ -16607,7 +16606,7 @@
       <c r="Y31" s="54"/>
       <c r="Z31" s="54"/>
     </row>
-    <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="50">
         <v>5.0999999999999996</v>
       </c>
@@ -16665,7 +16664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B33" s="50">
         <v>6.1</v>
       </c>
@@ -16729,7 +16728,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="50">
         <v>6.1</v>
       </c>
@@ -16792,7 +16791,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="50">
         <v>6.1</v>
       </c>
@@ -16855,7 +16854,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
@@ -16885,7 +16884,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="61" t="s">
         <v>112</v>
       </c>
@@ -16927,7 +16926,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="54"/>
       <c r="C38" s="54"/>
       <c r="D38" s="54"/>
@@ -16965,7 +16964,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="107" t="s">
         <v>64</v>
       </c>
@@ -17006,7 +17005,7 @@
       <c r="Y39" s="40"/>
       <c r="Z39" s="40"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="22" t="str">
         <f t="shared" ref="B40:B45" si="26">B7</f>
         <v/>
@@ -17044,7 +17043,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -17082,7 +17081,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -17120,7 +17119,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -17158,7 +17157,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -17196,7 +17195,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="26" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -17234,7 +17233,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="40"/>
       <c r="C46" s="2"/>
       <c r="D46" s="40"/>

--- a/EASE/EASE(D)-Repeated.xlsx
+++ b/EASE/EASE(D)-Repeated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="114_{B409581E-AB40-493C-B6FB-78B2AF776A96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{09D60A17-4C49-4CA4-B774-16E130A5ACE5}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{0FAFF3D2-FEC5-44D8-8244-AE90699BA8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE9C32DF-544C-45D3-88EC-AA82BE45E736}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,16 +424,16 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
+    <t>cwendorf@uwsp.edu</t>
+  </si>
+  <si>
     <t>How to Cite</t>
   </si>
   <si>
-    <t>cwendorf@uwsp.edu</t>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
     <t>Version: 2.20200104</t>
-  </si>
-  <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
@@ -1391,6 +1391,10 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1413,7 +1417,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1439,10 +1443,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="7" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1510,9 +1510,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2368,9 +2368,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Means!$K$7:$K$10</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3247,6 +3247,12 @@
               <c:f>OneComp!$B$40:$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>Subset</c:v>
                 </c:pt>
@@ -3434,7 +3440,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3458,7 +3466,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3482,7 +3492,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3506,7 +3518,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3691,6 +3705,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$H$18:$H$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4155,7 +4210,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4192,7 +4249,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4217,7 +4276,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4283,6 +4344,14 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$D$24:$D$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4456,10 +4525,10 @@
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>Subset</c:v>
@@ -4624,7 +4693,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4648,7 +4719,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4672,7 +4745,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4696,7 +4771,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4720,7 +4797,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4744,7 +4823,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4905,6 +4986,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5372,7 +5494,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5409,7 +5533,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5434,7 +5560,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5500,6 +5628,14 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$M$24:$M$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5675,9 +5811,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6859,9 +6995,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Pairwise!$K$7:$K$12</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8098,15 +8234,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>137158</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15238</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>173353</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>55243</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8136,15 +8272,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>179067</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>26670</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>24762</xdr:rowOff>
+      <xdr:rowOff>40002</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8648,7 +8784,7 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
@@ -8704,7 +8840,7 @@
       <c r="I3" s="191"/>
       <c r="J3" s="191"/>
       <c r="K3" s="194" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L3" s="194"/>
       <c r="M3" s="194"/>
@@ -8726,7 +8862,7 @@
       <c r="H4" s="194"/>
       <c r="I4" s="191"/>
       <c r="J4" s="191"/>
-      <c r="K4" s="209" t="s">
+      <c r="K4" s="195" t="s">
         <v>128</v>
       </c>
       <c r="L4" s="194"/>
@@ -8837,7 +8973,7 @@
       <c r="B20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="9" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8904,7 +9040,7 @@
         <v>110</v>
       </c>
       <c r="K25" s="188" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -8945,8 +9081,8 @@
       <c r="B28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="K28" s="8" t="s">
-        <v>124</v>
+      <c r="K28" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -8985,8 +9121,8 @@
       <c r="B31" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="K31" s="28" t="s">
-        <v>127</v>
+      <c r="K31" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9018,6 +9154,9 @@
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33"/>
+    </row>
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K34" s="188"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
@@ -9031,8 +9170,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K26" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{49C0C8A3-4D50-4A69-AC51-407DF95680C9}"/>
+    <hyperlink ref="K26" r:id="rId2" xr:uid="{657F03B9-2320-403F-A164-1B07784FB4D6}"/>
+    <hyperlink ref="K25" r:id="rId3" xr:uid="{75EBE3AA-E4AE-4C8B-AB99-8E519AA6D7EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -9048,7 +9187,7 @@
   <dimension ref="B1:AA206"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K5" sqref="K5:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9077,33 +9216,33 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="K2" s="199" t="s">
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="200"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="200"/>
+      <c r="H2" s="200"/>
+      <c r="K2" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="199"/>
-      <c r="M2" s="199"/>
-      <c r="N2" s="199"/>
-      <c r="O2" s="199"/>
+      <c r="L2" s="200"/>
+      <c r="M2" s="200"/>
+      <c r="N2" s="200"/>
+      <c r="O2" s="200"/>
       <c r="P2" s="125"/>
       <c r="Q2" s="126"/>
-      <c r="T2" s="199" t="s">
+      <c r="T2" s="200" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="199"/>
-      <c r="Y2" s="199"/>
-      <c r="Z2" s="199"/>
+      <c r="U2" s="200"/>
+      <c r="V2" s="200"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="200"/>
+      <c r="Y2" s="200"/>
+      <c r="Z2" s="200"/>
     </row>
     <row r="3" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
@@ -9170,15 +9309,15 @@
       <c r="Z5" s="54"/>
     </row>
     <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="198" t="s">
+      <c r="B6" s="199" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="198"/>
-      <c r="D6" s="198"/>
-      <c r="E6" s="198"/>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
-      <c r="H6" s="198"/>
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="199"/>
+      <c r="H6" s="199"/>
       <c r="P6" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9207,13 +9346,13 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
+      <c r="B7" s="205"/>
+      <c r="C7" s="205"/>
+      <c r="D7" s="205"/>
+      <c r="E7" s="205"/>
+      <c r="F7" s="205"/>
+      <c r="G7" s="205"/>
+      <c r="H7" s="205"/>
       <c r="P7" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9248,13 +9387,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="205"/>
-      <c r="C8" s="205"/>
-      <c r="D8" s="205"/>
-      <c r="E8" s="205"/>
-      <c r="F8" s="205"/>
-      <c r="G8" s="205"/>
-      <c r="H8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="206"/>
+      <c r="D8" s="206"/>
+      <c r="E8" s="206"/>
+      <c r="F8" s="206"/>
+      <c r="G8" s="206"/>
+      <c r="H8" s="206"/>
       <c r="P8" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9330,15 +9469,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="204" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
+      <c r="C10" s="204"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
       <c r="P10" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9372,13 +9511,13 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="201"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="201"/>
+      <c r="G11" s="201"/>
+      <c r="H11" s="201"/>
       <c r="P11" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9412,13 +9551,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="201"/>
-      <c r="C12" s="201"/>
-      <c r="D12" s="201"/>
-      <c r="E12" s="201"/>
-      <c r="F12" s="201"/>
-      <c r="G12" s="201"/>
-      <c r="H12" s="201"/>
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="202"/>
+      <c r="G12" s="202"/>
+      <c r="H12" s="202"/>
       <c r="P12" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9433,13 +9572,13 @@
       <c r="Z12" s="40"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="201"/>
-      <c r="C13" s="201"/>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201"/>
-      <c r="F13" s="201"/>
-      <c r="G13" s="201"/>
-      <c r="H13" s="201"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
+      <c r="G13" s="202"/>
+      <c r="H13" s="202"/>
       <c r="P13" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9456,13 +9595,13 @@
       <c r="Z13" s="54"/>
     </row>
     <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="202"/>
-      <c r="C14" s="202"/>
-      <c r="D14" s="202"/>
-      <c r="E14" s="202"/>
-      <c r="F14" s="202"/>
-      <c r="G14" s="202"/>
-      <c r="H14" s="202"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
       <c r="P14" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9545,16 +9684,16 @@
       <c r="Z20" s="54"/>
     </row>
     <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="198" t="s">
+      <c r="B21" s="199" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198" t="s">
+      <c r="C21" s="199"/>
+      <c r="D21" s="199" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="198"/>
+      <c r="E21" s="199"/>
+      <c r="F21" s="199"/>
+      <c r="G21" s="199"/>
       <c r="H21" s="12" t="s">
         <v>26</v>
       </c>
@@ -9584,12 +9723,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="196"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="196"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
+      <c r="B22" s="197"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="197"/>
+      <c r="G22" s="197"/>
       <c r="H22" s="115"/>
       <c r="P22" s="93" t="str">
         <f t="shared" si="0"/>
@@ -9621,12 +9760,12 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="197"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="198"/>
       <c r="H23" s="53"/>
       <c r="P23" s="93" t="str">
         <f t="shared" si="0"/>
@@ -9655,12 +9794,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="197"/>
-      <c r="C24" s="197"/>
-      <c r="D24" s="197"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="197"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="198"/>
       <c r="H24" s="53"/>
       <c r="P24" s="93" t="str">
         <f t="shared" si="0"/>
@@ -9686,12 +9825,12 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="195"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
+      <c r="B25" s="196"/>
+      <c r="C25" s="196"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="196"/>
+      <c r="F25" s="196"/>
+      <c r="G25" s="196"/>
       <c r="H25" s="116"/>
       <c r="P25" s="93" t="str">
         <f t="shared" ref="P25:P69" si="1">IFERROR(AVERAGE(L25:O25),"")</f>
@@ -11054,7 +11193,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
@@ -11079,36 +11218,36 @@
     </row>
     <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="207" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="206" t="s">
+      <c r="K2" s="207" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
       <c r="R2" s="5"/>
-      <c r="T2" s="206" t="s">
+      <c r="T2" s="207" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="206"/>
+      <c r="U2" s="207"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="207"/>
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="207"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
@@ -11197,10 +11336,10 @@
       <c r="F6" s="158" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="207" t="s">
+      <c r="G6" s="208" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="207"/>
+      <c r="H6" s="208"/>
       <c r="J6" s="3"/>
       <c r="K6" s="133" t="s">
         <v>64</v>
@@ -11217,10 +11356,10 @@
       <c r="O6" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="207" t="s">
+      <c r="P6" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="207"/>
+      <c r="Q6" s="208"/>
       <c r="S6" s="54"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
@@ -12981,24 +13120,24 @@
   <sheetData>
     <row r="1" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="2" spans="2:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="207" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="K2" s="206" t="s">
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="K2" s="207" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="61" t="s">
@@ -13067,10 +13206,10 @@
       <c r="F6" s="145" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="208" t="s">
+      <c r="G6" s="209" t="s">
         <v>82</v>
       </c>
-      <c r="H6" s="208"/>
+      <c r="H6" s="209"/>
       <c r="K6" s="163" t="s">
         <v>64</v>
       </c>
@@ -13087,10 +13226,10 @@
       <c r="O6" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="207" t="s">
+      <c r="P6" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="207"/>
+      <c r="Q6" s="208"/>
       <c r="R6" s="167"/>
       <c r="S6" s="42"/>
       <c r="T6" s="42"/>
@@ -13102,7 +13241,9 @@
       <c r="Z6" s="42"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="115"/>
+      <c r="B7" s="115">
+        <v>2</v>
+      </c>
       <c r="C7" s="73" t="str">
         <f>IF(B7="","",VLOOKUP($B7,Data!$U$7:$X$10,2,FALSE))</f>
         <v/>
@@ -13129,7 +13270,7 @@
       </c>
       <c r="K7" s="138">
         <f>B7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" s="168" t="str">
         <f>IFERROR((D7-C40)/E7,"")</f>
@@ -13166,7 +13307,9 @@
       <c r="Z7" s="42"/>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="189"/>
+      <c r="B8" s="189">
+        <v>1</v>
+      </c>
       <c r="C8" s="77" t="str">
         <f>IF(B8="","",VLOOKUP($B8,Data!$U$7:$X$10,2,FALSE))</f>
         <v/>
@@ -13193,7 +13336,7 @@
       </c>
       <c r="K8" s="171">
         <f>B8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="172" t="str">
         <f>IFERROR((D8-C41)/E8,"")</f>
@@ -13268,10 +13411,10 @@
       <c r="F10" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="207" t="s">
+      <c r="G10" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="207"/>
+      <c r="H10" s="208"/>
       <c r="K10" s="163" t="s">
         <v>116</v>
       </c>
@@ -13288,10 +13431,10 @@
       <c r="O10" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="P10" s="207" t="s">
+      <c r="P10" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="Q10" s="207"/>
+      <c r="Q10" s="208"/>
       <c r="R10" s="167"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
@@ -13306,9 +13449,9 @@
       <c r="B11" s="147" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="187" t="e">
+      <c r="C11" s="187" t="str">
         <f>VLOOKUP(SMALL(B7:B8,1),Data!V22:Z25,MATCH(LARGE(B7:B8,1),Data!V21:Z21,0),FALSE)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="D11" s="148" t="str">
         <f>IFERROR(D8-D7,"")</f>
@@ -13411,7 +13554,9 @@
       <c r="G14" s="58" t="s">
         <v>109</v>
       </c>
-      <c r="H14" s="154"/>
+      <c r="H14" s="154">
+        <v>5</v>
+      </c>
       <c r="K14" s="61" t="s">
         <v>113</v>
       </c>
@@ -13461,9 +13606,9 @@
         <v>106</v>
       </c>
       <c r="G16" s="119"/>
-      <c r="H16" s="143" t="e">
+      <c r="H16" s="143">
         <f>IF(H14="",H32,H14)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="J16" s="143"/>
       <c r="K16" s="144" t="s">
@@ -14709,9 +14854,9 @@
       <c r="Z39" s="167"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="73" t="str">
+      <c r="B40" s="73">
         <f>IF(B7="","",B7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C40" s="142"/>
       <c r="D40" s="36" t="str">
@@ -14736,7 +14881,7 @@
       </c>
       <c r="K40" s="73">
         <f>K7</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40" s="185" t="s">
         <v>119</v>
@@ -14757,9 +14902,9 @@
       <c r="Z40" s="167"/>
     </row>
     <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="146" t="str">
+      <c r="B41" s="146">
         <f>IF(B8="","",B8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C41" s="150"/>
       <c r="D41" s="68" t="str">
@@ -14784,7 +14929,7 @@
       </c>
       <c r="K41" s="146">
         <f>K8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" s="186" t="s">
         <v>119</v>
@@ -14969,7 +15114,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40:L45"/>
     </sheetView>
   </sheetViews>
@@ -15000,36 +15145,36 @@
     </row>
     <row r="2" spans="1:26" s="124" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="207" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="206" t="s">
+      <c r="K2" s="207" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="207"/>
+      <c r="N2" s="207"/>
+      <c r="O2" s="207"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
       <c r="R2" s="5"/>
-      <c r="T2" s="206" t="s">
+      <c r="T2" s="207" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="206"/>
+      <c r="U2" s="207"/>
+      <c r="V2" s="207"/>
+      <c r="W2" s="207"/>
+      <c r="X2" s="207"/>
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="207"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="34"/>
@@ -15094,10 +15239,10 @@
       <c r="F6" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="207" t="s">
+      <c r="G6" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="207"/>
+      <c r="H6" s="208"/>
       <c r="J6" s="31"/>
       <c r="K6" s="63" t="s">
         <v>64</v>
@@ -15115,10 +15260,10 @@
       <c r="O6" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="P6" s="207" t="s">
+      <c r="P6" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="Q6" s="207"/>
+      <c r="Q6" s="208"/>
       <c r="S6" s="54"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">

--- a/EASE/EASE(D)-Repeated.xlsx
+++ b/EASE/EASE(D)-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{0FAFF3D2-FEC5-44D8-8244-AE90699BA8C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FE9C32DF-544C-45D3-88EC-AA82BE45E736}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{7668EF33-9012-4FA7-8E13-BFA149DCF87D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{02F65D25-CC03-4582-8B28-5146C73C0862}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,9 +412,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/psych/cw/</t>
-  </si>
-  <si>
     <t>Using this Module</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1395,18 +1395,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1432,6 +1420,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1510,9 +1510,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2368,9 +2368,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Means!$K$7:$K$10</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3344,7 +3344,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3368,7 +3370,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3392,7 +3396,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3416,7 +3422,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3441,7 +3449,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3467,7 +3475,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3493,7 +3501,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3519,7 +3527,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3544,7 +3552,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3568,7 +3578,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3592,7 +3604,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3705,47 +3719,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$H$18:$H$28</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
-                  <c:pt idx="0">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4211,7 +4184,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -4250,7 +4223,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -4277,7 +4250,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -4344,14 +4317,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$D$24:$D$26</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="3"/>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4621,7 +4586,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4645,7 +4612,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4669,7 +4638,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4694,7 +4665,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4720,7 +4691,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4746,7 +4717,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4772,7 +4743,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4798,7 +4769,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4824,7 +4795,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4849,7 +4820,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4873,7 +4846,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4986,47 +4961,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
-                  <c:pt idx="0">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5495,7 +5429,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -5534,7 +5468,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -5561,7 +5495,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -5628,14 +5562,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$M$24:$M$26</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="3"/>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5811,9 +5737,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6995,9 +6921,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Pairwise!$K$7:$K$12</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8787,7 +8713,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8806,7 +8732,7 @@
     <row r="2" spans="1:17" s="123" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="127"/>
       <c r="B2" s="192" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="192"/>
       <c r="D2" s="192"/>
@@ -8840,7 +8766,7 @@
       <c r="I3" s="191"/>
       <c r="J3" s="191"/>
       <c r="K3" s="194" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" s="194"/>
       <c r="M3" s="194"/>
@@ -8863,7 +8789,7 @@
       <c r="I4" s="191"/>
       <c r="J4" s="191"/>
       <c r="K4" s="195" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" s="194"/>
       <c r="M4" s="194"/>
@@ -9034,13 +8960,13 @@
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="31" t="s">
         <v>110</v>
       </c>
       <c r="K25" s="188" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9058,7 +8984,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="188" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9079,10 +9005,10 @@
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="31"/>
       <c r="B28" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9122,7 +9048,7 @@
         <v>95</v>
       </c>
       <c r="K31" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9137,7 +9063,7 @@
         <v>96</v>
       </c>
       <c r="K32" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9216,33 +9142,33 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="197" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="K2" s="200" t="s">
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="K2" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="200"/>
-      <c r="M2" s="200"/>
-      <c r="N2" s="200"/>
-      <c r="O2" s="200"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
       <c r="P2" s="125"/>
       <c r="Q2" s="126"/>
-      <c r="T2" s="200" t="s">
+      <c r="T2" s="197" t="s">
         <v>62</v>
       </c>
-      <c r="U2" s="200"/>
-      <c r="V2" s="200"/>
-      <c r="W2" s="200"/>
-      <c r="X2" s="200"/>
-      <c r="Y2" s="200"/>
-      <c r="Z2" s="200"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197"/>
     </row>
     <row r="3" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.75">
       <c r="E3" s="1"/>
@@ -9309,15 +9235,15 @@
       <c r="Z5" s="54"/>
     </row>
     <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="199" t="s">
+      <c r="B6" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199"/>
-      <c r="F6" s="199"/>
-      <c r="G6" s="199"/>
-      <c r="H6" s="199"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="196"/>
+      <c r="G6" s="196"/>
+      <c r="H6" s="196"/>
       <c r="P6" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9346,13 +9272,13 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
-      <c r="D7" s="205"/>
-      <c r="E7" s="205"/>
-      <c r="F7" s="205"/>
-      <c r="G7" s="205"/>
-      <c r="H7" s="205"/>
+      <c r="B7" s="202"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="202"/>
       <c r="P7" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9387,13 +9313,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="206"/>
-      <c r="C8" s="206"/>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
+      <c r="B8" s="203"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
+      <c r="E8" s="203"/>
+      <c r="F8" s="203"/>
+      <c r="G8" s="203"/>
+      <c r="H8" s="203"/>
       <c r="P8" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9469,15 +9395,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="204" t="s">
+      <c r="B10" s="201" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="204"/>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
+      <c r="C10" s="201"/>
+      <c r="D10" s="201"/>
+      <c r="E10" s="201"/>
+      <c r="F10" s="201"/>
+      <c r="G10" s="201"/>
+      <c r="H10" s="201"/>
       <c r="P10" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9511,13 +9437,13 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="201"/>
-      <c r="C11" s="201"/>
-      <c r="D11" s="201"/>
-      <c r="E11" s="201"/>
-      <c r="F11" s="201"/>
-      <c r="G11" s="201"/>
-      <c r="H11" s="201"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="198"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
       <c r="P11" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9551,13 +9477,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="202"/>
-      <c r="C12" s="202"/>
-      <c r="D12" s="202"/>
-      <c r="E12" s="202"/>
-      <c r="F12" s="202"/>
-      <c r="G12" s="202"/>
-      <c r="H12" s="202"/>
+      <c r="B12" s="199"/>
+      <c r="C12" s="199"/>
+      <c r="D12" s="199"/>
+      <c r="E12" s="199"/>
+      <c r="F12" s="199"/>
+      <c r="G12" s="199"/>
+      <c r="H12" s="199"/>
       <c r="P12" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9572,13 +9498,13 @@
       <c r="Z12" s="40"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="202"/>
-      <c r="C13" s="202"/>
-      <c r="D13" s="202"/>
-      <c r="E13" s="202"/>
-      <c r="F13" s="202"/>
-      <c r="G13" s="202"/>
-      <c r="H13" s="202"/>
+      <c r="B13" s="199"/>
+      <c r="C13" s="199"/>
+      <c r="D13" s="199"/>
+      <c r="E13" s="199"/>
+      <c r="F13" s="199"/>
+      <c r="G13" s="199"/>
+      <c r="H13" s="199"/>
       <c r="P13" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9595,13 +9521,13 @@
       <c r="Z13" s="54"/>
     </row>
     <row r="14" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="203"/>
-      <c r="C14" s="203"/>
-      <c r="D14" s="203"/>
-      <c r="E14" s="203"/>
-      <c r="F14" s="203"/>
-      <c r="G14" s="203"/>
-      <c r="H14" s="203"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="200"/>
+      <c r="D14" s="200"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
       <c r="P14" s="93" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9684,16 +9610,16 @@
       <c r="Z20" s="54"/>
     </row>
     <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="199" t="s">
+      <c r="B21" s="196" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199" t="s">
+      <c r="C21" s="196"/>
+      <c r="D21" s="196" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="199"/>
-      <c r="F21" s="199"/>
-      <c r="G21" s="199"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
       <c r="H21" s="12" t="s">
         <v>26</v>
       </c>
@@ -9723,12 +9649,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="197"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="197"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="197"/>
+      <c r="B22" s="205"/>
+      <c r="C22" s="205"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
       <c r="H22" s="115"/>
       <c r="P22" s="93" t="str">
         <f t="shared" si="0"/>
@@ -9760,12 +9686,12 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="198"/>
-      <c r="C23" s="198"/>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="198"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="206"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="206"/>
       <c r="H23" s="53"/>
       <c r="P23" s="93" t="str">
         <f t="shared" si="0"/>
@@ -9794,12 +9720,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="198"/>
-      <c r="C24" s="198"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="198"/>
+      <c r="B24" s="206"/>
+      <c r="C24" s="206"/>
+      <c r="D24" s="206"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
       <c r="H24" s="53"/>
       <c r="P24" s="93" t="str">
         <f t="shared" si="0"/>
@@ -9825,12 +9751,12 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="196"/>
-      <c r="C25" s="196"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="196"/>
-      <c r="G25" s="196"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
       <c r="H25" s="116"/>
       <c r="P25" s="93" t="str">
         <f t="shared" ref="P25:P69" si="1">IFERROR(AVERAGE(L25:O25),"")</f>
@@ -11162,6 +11088,14 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:O4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -11171,14 +11105,6 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EASE/EASE(D)-Repeated.xlsx
+++ b/EASE/EASE(D)-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{7668EF33-9012-4FA7-8E13-BFA149DCF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D69B4BFB-0A47-4EAF-8E9A-A4A7EAEE49C1}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="114_{7668EF33-9012-4FA7-8E13-BFA149DCF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB4CBB96-558B-4EC2-BBA6-898000191C2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <definedName name="SPSS2" localSheetId="3">[3]Data!#REF!</definedName>
     <definedName name="SPSS2">[3]Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -424,19 +424,19 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
-  </si>
-  <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -1165,18 +1165,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1202,6 +1190,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8480,7 +8480,7 @@
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8528,7 +8528,7 @@
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
       <c r="K3" s="116" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L3" s="116"/>
       <c r="M3" s="116"/>
@@ -8548,7 +8548,7 @@
       <c r="G4" s="116"/>
       <c r="H4" s="116"/>
       <c r="K4" s="117" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="116"/>
       <c r="M4" s="116"/>
@@ -8721,7 +8721,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="111" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -8766,7 +8766,7 @@
         <v>93</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8780,7 +8780,7 @@
         <v>94</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8794,7 +8794,7 @@
         <v>95</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -8868,33 +8868,33 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="K2" s="119" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="88"/>
-      <c r="T2" s="122" t="s">
+      <c r="T2" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
     </row>
     <row r="3" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -8943,15 +8943,15 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
+      <c r="C6" s="118"/>
+      <c r="D6" s="118"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="118"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
       <c r="P6" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8979,13 +8979,13 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
       <c r="P7" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9019,13 +9019,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="128"/>
-      <c r="C8" s="128"/>
-      <c r="D8" s="128"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="128"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
       <c r="P8" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9099,15 +9099,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="126" t="s">
+      <c r="B10" s="123" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="126"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
       <c r="P10" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9141,13 +9141,13 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="123"/>
-      <c r="C11" s="123"/>
-      <c r="D11" s="123"/>
-      <c r="E11" s="123"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
       <c r="P11" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9180,13 +9180,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="124"/>
-      <c r="C12" s="124"/>
-      <c r="D12" s="124"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="124"/>
-      <c r="H12" s="124"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
       <c r="P12" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9200,13 +9200,13 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="124"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="124"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
       <c r="P13" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9216,13 +9216,13 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="122"/>
       <c r="P14" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9284,16 +9284,16 @@
       </c>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="121"/>
-      <c r="D21" s="121" t="s">
+      <c r="C21" s="118"/>
+      <c r="D21" s="118" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="121"/>
-      <c r="F21" s="121"/>
-      <c r="G21" s="121"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="118"/>
+      <c r="G21" s="118"/>
       <c r="H21" s="10" t="s">
         <v>26</v>
       </c>
@@ -9322,12 +9322,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="82"/>
       <c r="P22" s="40" t="str">
         <f t="shared" si="0"/>
@@ -9358,12 +9358,12 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="120"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="41"/>
       <c r="P23" s="40" t="str">
         <f t="shared" si="0"/>
@@ -9391,12 +9391,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="120"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="120"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="41"/>
       <c r="P24" s="40" t="str">
         <f t="shared" si="0"/>
@@ -9421,12 +9421,12 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="118"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
       <c r="H25" s="83"/>
       <c r="P25" s="40" t="str">
         <f t="shared" ref="P25:P69" si="1">IFERROR(AVERAGE(L25:O25),"")</f>
@@ -10741,6 +10741,14 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:O4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -10750,14 +10758,6 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10787,33 +10787,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="K2" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="T2" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12612,24 +12612,24 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="K2" s="122" t="s">
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="K2" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -14384,34 +14384,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
       <c r="I2"/>
-      <c r="K2" s="122" t="s">
+      <c r="K2" s="119" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="T2" s="122" t="s">
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="T2" s="119" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="122"/>
-      <c r="W2" s="122"/>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="122"/>
-      <c r="Z2" s="122"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(D)-Repeated.xlsx
+++ b/EASE/EASE(D)-Repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{7668EF33-9012-4FA7-8E13-BFA149DCF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB4CBB96-558B-4EC2-BBA6-898000191C2D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{7668EF33-9012-4FA7-8E13-BFA149DCF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB756F8F-0E5B-47F7-B6C2-B08D13C2C63B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -1165,6 +1165,18 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1190,18 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8154,9 +8154,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8194,9 +8194,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8229,26 +8229,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8281,26 +8264,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8815,7 +8781,7 @@
       <c r="K34" s="111"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -8868,33 +8834,33 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="K2" s="119" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="88"/>
-      <c r="T2" s="119" t="s">
+      <c r="T2" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="2:26" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E3" s="1"/>
@@ -8943,15 +8909,15 @@
       </c>
     </row>
     <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="118" t="s">
+      <c r="B6" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="118"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118"/>
+      <c r="C6" s="121"/>
+      <c r="D6" s="121"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
+      <c r="G6" s="121"/>
+      <c r="H6" s="121"/>
       <c r="P6" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -8979,13 +8945,13 @@
       </c>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
-      <c r="G7" s="124"/>
-      <c r="H7" s="124"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
       <c r="P7" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9019,13 +8985,13 @@
       </c>
     </row>
     <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="128"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
       <c r="P8" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9099,15 +9065,15 @@
       </c>
     </row>
     <row r="10" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123"/>
-      <c r="E10" s="123"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="123"/>
-      <c r="H10" s="123"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="126"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="126"/>
       <c r="P10" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9141,13 +9107,13 @@
       </c>
     </row>
     <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
       <c r="P11" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9180,13 +9146,13 @@
       </c>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B12" s="121"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="121"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="124"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
+      <c r="H12" s="124"/>
       <c r="P12" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9200,13 +9166,13 @@
       <c r="Z12" s="9"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="124"/>
       <c r="P13" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9216,13 +9182,13 @@
       </c>
     </row>
     <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="122"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
       <c r="P14" s="40" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -9284,16 +9250,16 @@
       </c>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="121" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="118"/>
-      <c r="D21" s="118" t="s">
+      <c r="C21" s="121"/>
+      <c r="D21" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="118"/>
-      <c r="F21" s="118"/>
-      <c r="G21" s="118"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
       <c r="H21" s="10" t="s">
         <v>26</v>
       </c>
@@ -9322,12 +9288,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="82"/>
       <c r="P22" s="40" t="str">
         <f t="shared" si="0"/>
@@ -9358,12 +9324,12 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="41"/>
       <c r="P23" s="40" t="str">
         <f t="shared" si="0"/>
@@ -9391,12 +9357,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
       <c r="H24" s="41"/>
       <c r="P24" s="40" t="str">
         <f t="shared" si="0"/>
@@ -9421,12 +9387,12 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
       <c r="H25" s="83"/>
       <c r="P25" s="40" t="str">
         <f t="shared" ref="P25:P69" si="1">IFERROR(AVERAGE(L25:O25),"")</f>
@@ -10741,14 +10707,6 @@
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <autoFilter ref="K4:O4" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="17">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -10758,6 +10716,14 @@
     <mergeCell ref="B7:H8"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10787,33 +10753,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="K2" s="119" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="T2" s="119" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -12612,24 +12578,24 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="K2" s="119" t="s">
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="K2" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="46" t="s">
@@ -14384,34 +14350,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
       <c r="I2"/>
-      <c r="K2" s="119" t="s">
+      <c r="K2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
-      <c r="P2" s="119"/>
-      <c r="Q2" s="119"/>
-      <c r="T2" s="119" t="s">
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="T2" s="122" t="s">
         <v>61</v>
       </c>
-      <c r="U2" s="119"/>
-      <c r="V2" s="119"/>
-      <c r="W2" s="119"/>
-      <c r="X2" s="119"/>
-      <c r="Y2" s="119"/>
-      <c r="Z2" s="119"/>
+      <c r="U2" s="122"/>
+      <c r="V2" s="122"/>
+      <c r="W2" s="122"/>
+      <c r="X2" s="122"/>
+      <c r="Y2" s="122"/>
+      <c r="Z2" s="122"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(D)-Repeated.xlsx
+++ b/EASE/EASE(D)-Repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{7668EF33-9012-4FA7-8E13-BFA149DCF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB756F8F-0E5B-47F7-B6C2-B08D13C2C63B}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{7668EF33-9012-4FA7-8E13-BFA149DCF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C4A320-39CA-423A-996F-83F9BFF0717B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,19 +424,19 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/EASE</t>
-  </si>
-  <si>
     <t>http://cwendorf.github.io</t>
-  </si>
-  <si>
-    <t>Version: 2.210601</t>
   </si>
   <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/EASE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -8153,6 +8153,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8446,7 +8450,7 @@
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8494,7 +8498,7 @@
       <c r="I3" s="91"/>
       <c r="J3" s="91"/>
       <c r="K3" s="116" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L3" s="116"/>
       <c r="M3" s="116"/>
@@ -8514,7 +8518,7 @@
       <c r="G4" s="116"/>
       <c r="H4" s="116"/>
       <c r="K4" s="117" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L4" s="116"/>
       <c r="M4" s="116"/>
@@ -8687,7 +8691,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -8732,7 +8736,7 @@
         <v>93</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8746,7 +8750,7 @@
         <v>94</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8760,7 +8764,7 @@
         <v>95</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -8791,9 +8795,9 @@
     <mergeCell ref="K4:Q4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K26" r:id="rId2" xr:uid="{657F03B9-2320-403F-A164-1B07784FB4D6}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{75EBE3AA-E4AE-4C8B-AB99-8E519AA6D7EA}"/>
+    <hyperlink ref="K26" r:id="rId1" xr:uid="{657F03B9-2320-403F-A164-1B07784FB4D6}"/>
+    <hyperlink ref="K25" r:id="rId2" xr:uid="{75EBE3AA-E4AE-4C8B-AB99-8E519AA6D7EA}"/>
+    <hyperlink ref="K4" r:id="rId3" display="https://cwendorf.github.io/BASE/EASE" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/EASE/EASE(D)-Repeated.xlsx
+++ b/EASE/EASE(D)-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{7668EF33-9012-4FA7-8E13-BFA149DCF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7C4A320-39CA-423A-996F-83F9BFF0717B}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{7668EF33-9012-4FA7-8E13-BFA149DCF87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{128B152A-844C-4893-B98E-F8BADF629F4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8153,10 +8153,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8449,7 +8445,7 @@
   </sheetPr>
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
